--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R284d280c51fa4e94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Raea0f2f90b8e4785"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Raea0f2f90b8e4785"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rbeeeaeaf5f934954"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rbeeeaeaf5f934954"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Re0068598a432408b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Re0068598a432408b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ra0eda381f532444e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,12 +28,12 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -46,7 +46,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ra0eda381f532444e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5e8cb84ff2544d7c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5e8cb84ff2544d7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Re7855526ba544156"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Re7855526ba544156"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rdd2bdc8a8677404c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rdd2bdc8a8677404c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R40d6dc8207ac4d69"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R40d6dc8207ac4d69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc60b046c425745d2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc60b046c425745d2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R0722f621f44f4914"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R0722f621f44f4914"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R6884e513cd5049e7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R6884e513cd5049e7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ra9e8ad661c4f40ee"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ra9e8ad661c4f40ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Radc3e8556fa540eb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Radc3e8556fa540eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5bdbcf83ac864607"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5bdbcf83ac864607"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R44666d60c6de4e91"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R44666d60c6de4e91"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R1165a6535922448b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R1165a6535922448b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rf7add221b2674ac8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rf7add221b2674ac8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R63823be2c04b491e"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R63823be2c04b491e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R27607408f1524a9c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R27607408f1524a9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R23dd1669fc764f38"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R23dd1669fc764f38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rb910fcb84e4c4edd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rb910fcb84e4c4edd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R52760a8d84254dee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R52760a8d84254dee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc4053b678dd646b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc4053b678dd646b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R66c4bc3fe85c43b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R66c4bc3fe85c43b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R57d37ea03e4c459b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R57d37ea03e4c459b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc34cd32f13f54822"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc34cd32f13f54822"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Raf150dcb4fce45c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Raf150dcb4fce45c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R83ffae2757084642"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R83ffae2757084642"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rf5176492c4a345c3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rf5176492c4a345c3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R23fef8ac6bbf4c03"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R23fef8ac6bbf4c03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rfea741e12abf46cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rfea741e12abf46cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ree9bf504ad504cce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ree9bf504ad504cce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc1a05b52e1224cd4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rc1a05b52e1224cd4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R86b4142459f242ed"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R86b4142459f242ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R27ccc1b8ee544765"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R27ccc1b8ee544765"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rf35e1e91e0a74d0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rf35e1e91e0a74d0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R4d2c10a96f654b3d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R4d2c10a96f654b3d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R21626110d6894ed0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R21626110d6894ed0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ra3bb6b8017d24b6c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Ra3bb6b8017d24b6c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R2cf93df8d6894621"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R2cf93df8d6894621"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R7ab659ad1d364840"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R7ab659ad1d364840"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rd83331b89ee94584"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rd83331b89ee94584"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rd9799cc62d51412c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="Rd9799cc62d51412c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5dea1f25497943e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/15_CsvSimulation.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5dea1f25497943e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CsvSimulation" sheetId="1" r:id="R5586d507c7e84247"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
